--- a/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,05</t>
+          <t>7,46; 10,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,22</t>
+          <t>11,84; 16,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,73</t>
+          <t>11,05; 15,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 21,79</t>
+          <t>15,6; 21,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 13,6</t>
+          <t>9,79; 13,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,06</t>
+          <t>16,75; 21,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,59; 24,07</t>
+          <t>18,82; 24,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,17; 28,11</t>
+          <t>23,4; 28,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 11,78</t>
+          <t>9,22; 11,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 18,31</t>
+          <t>15,07; 18,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,88</t>
+          <t>16,17; 19,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 24,9</t>
+          <t>21,12; 25,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,45</t>
+          <t>2,54; 4,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,42</t>
+          <t>5,18; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,92</t>
+          <t>4,74; 6,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 10,94</t>
+          <t>8,16; 10,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,77</t>
+          <t>5,42; 7,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,46</t>
+          <t>9,38; 12,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,28</t>
+          <t>7,71; 10,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 13,37</t>
+          <t>9,9; 13,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 5,72</t>
+          <t>4,21; 5,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 9,5</t>
+          <t>7,4; 9,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,17</t>
+          <t>6,54; 8,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,58; 11,84</t>
+          <t>9,67; 11,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,34</t>
+          <t>1,4; 4,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,9</t>
+          <t>1,94; 5,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,87</t>
+          <t>3,67; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,6</t>
+          <t>6,36; 11,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,2</t>
+          <t>4,74; 9,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,2</t>
+          <t>3,91; 9,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,38</t>
+          <t>2,9; 6,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,21</t>
+          <t>6,08; 9,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,15</t>
+          <t>3,42; 6,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,63</t>
+          <t>3,37; 6,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,32</t>
+          <t>3,61; 6,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,88</t>
+          <t>6,67; 9,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,39; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 9,08</t>
+          <t>7,22; 9,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,55; 8,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 11,94</t>
+          <t>9,59; 11,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,55; 9,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 14,61</t>
+          <t>12,14; 14,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 12,87</t>
+          <t>10,57; 12,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 15,22</t>
+          <t>12,82; 15,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,24; 7,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 11,59</t>
+          <t>9,92; 11,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,31</t>
+          <t>8,92; 10,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 13,29</t>
+          <t>11,61; 13,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 10,85</t>
+          <t>7,38; 11,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 16,41</t>
+          <t>11,67; 16,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,05; 15,7</t>
+          <t>10,91; 15,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,15</t>
+          <t>9,95; 13,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 21,07</t>
+          <t>16,9; 21,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 24,35</t>
+          <t>18,73; 24,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,22; 11,76</t>
+          <t>9,12; 11,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,07; 18,27</t>
+          <t>15,3; 18,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 19,85</t>
+          <t>16,11; 19,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,36</t>
+          <t>2,66; 4,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,38</t>
+          <t>5,23; 7,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,89</t>
+          <t>4,74; 6,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,76</t>
+          <t>5,33; 7,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,61</t>
+          <t>9,32; 12,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 10,27</t>
+          <t>7,66; 10,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 5,65</t>
+          <t>4,13; 5,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 9,23</t>
+          <t>7,5; 9,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,25</t>
+          <t>6,56; 8,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,48</t>
+          <t>1,56; 4,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,99</t>
+          <t>1,92; 5,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,8</t>
+          <t>3,48; 7,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,52</t>
+          <t>4,79; 9,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,15</t>
+          <t>4,01; 9,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,44</t>
+          <t>2,91; 6,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,17</t>
+          <t>3,44; 5,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,69</t>
+          <t>3,42; 6,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,46</t>
+          <t>3,58; 6,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,91</t>
+          <t>4,4; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 9,07</t>
+          <t>7,12; 8,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,35</t>
+          <t>6,54; 8,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 9,54</t>
+          <t>7,62; 9,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 14,53</t>
+          <t>12,06; 14,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 12,84</t>
+          <t>10,56; 12,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,49</t>
+          <t>6,21; 7,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 11,45</t>
+          <t>10,0; 11,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 10,4</t>
+          <t>8,84; 10,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,07</t>
+          <t>7,46; 11,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,45</t>
+          <t>11,69; 16,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,51</t>
+          <t>11,22; 15,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 21,95</t>
+          <t>15,78; 21,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 13,44</t>
+          <t>9,93; 13,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,9; 21,31</t>
+          <t>16,85; 21,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,73; 24,09</t>
+          <t>18,59; 24,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,4; 28,33</t>
+          <t>23,17; 28,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,59</t>
+          <t>9,28; 11,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,3; 18,58</t>
+          <t>15,34; 18,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,11; 19,79</t>
+          <t>16,03; 19,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,12; 25,02</t>
+          <t>20,97; 24,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,51</t>
+          <t>2,56; 4,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,5</t>
+          <t>5,27; 7,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,86</t>
+          <t>4,74; 6,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 10,94</t>
+          <t>8,23; 10,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,72</t>
+          <t>5,35; 7,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 12,43</t>
+          <t>9,38; 12,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 10,35</t>
+          <t>7,62; 10,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 13,37</t>
+          <t>9,94; 13,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,68</t>
+          <t>4,21; 5,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 9,41</t>
+          <t>7,48; 9,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 8,25</t>
+          <t>6,44; 8,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 11,74</t>
+          <t>9,58; 11,84</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,62</t>
+          <t>1,38; 4,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,89</t>
+          <t>2,02; 5,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,77</t>
+          <t>3,64; 7,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,42</t>
+          <t>6,37; 11,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,45</t>
+          <t>4,73; 9,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,57</t>
+          <t>3,91; 9,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,53</t>
+          <t>2,87; 6,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,88</t>
+          <t>6,15; 10,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,98</t>
+          <t>3,36; 6,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,7</t>
+          <t>3,49; 6,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,3</t>
+          <t>3,64; 6,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 9,86</t>
+          <t>6,79; 9,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 5,91</t>
+          <t>4,37; 5,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 8,96</t>
+          <t>7,07; 9,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,36</t>
+          <t>6,55; 8,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 11,91</t>
+          <t>9,54; 11,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,39</t>
+          <t>7,6; 9,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 14,31</t>
+          <t>12,12; 14,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,96</t>
+          <t>10,64; 12,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 15,36</t>
+          <t>12,6; 15,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,43</t>
+          <t>6,24; 7,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 11,56</t>
+          <t>9,99; 11,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 10,36</t>
+          <t>8,85; 10,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,39</t>
+          <t>11,58; 13,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>22,05%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 21,79</t>
+          <t>15,1; 20,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,17; 28,11</t>
+          <t>22,48; 27,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 24,9</t>
+          <t>20,14; 24,0</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 10,94</t>
+          <t>6,09; 9,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 13,37</t>
+          <t>7,94; 12,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,58; 11,84</t>
+          <t>7,42; 10,79</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,6</t>
+          <t>6,61; 13,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,21</t>
+          <t>6,16; 10,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,88</t>
+          <t>6,87; 10,89</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>11,51%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 11,94</t>
+          <t>7,37; 11,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 15,22</t>
+          <t>10,44; 14,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 13,29</t>
+          <t>10,03; 12,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,05</t>
+          <t>7,35; 10,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,22</t>
+          <t>11,84; 16,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,73</t>
+          <t>11,06; 15,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,92</t>
+          <t>15,1; 21,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 13,6</t>
+          <t>9,73; 13,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,06</t>
+          <t>16,7; 21,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,59; 24,07</t>
+          <t>18,84; 24,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,2</t>
+          <t>22,76; 27,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 11,78</t>
+          <t>9,25; 11,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 18,31</t>
+          <t>15,15; 18,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,88</t>
+          <t>16,07; 19,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 24,0</t>
+          <t>20,12; 24,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,45</t>
+          <t>2,51; 4,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,42</t>
+          <t>5,27; 7,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,92</t>
+          <t>4,82; 6,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 9,94</t>
+          <t>5,46; 9,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,77</t>
+          <t>5,4; 7,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,46</t>
+          <t>9,32; 12,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,28</t>
+          <t>7,65; 10,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,52</t>
+          <t>7,72; 12,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 5,72</t>
+          <t>4,18; 5,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 9,5</t>
+          <t>7,48; 9,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,17</t>
+          <t>6,53; 8,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,79</t>
+          <t>7,59; 10,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,34</t>
+          <t>1,47; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,9</t>
+          <t>2,01; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,87</t>
+          <t>3,54; 7,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,78</t>
+          <t>6,44; 13,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,2</t>
+          <t>4,79; 9,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,2</t>
+          <t>3,94; 9,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,38</t>
+          <t>2,71; 6,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,15</t>
+          <t>6,15; 9,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,15</t>
+          <t>3,31; 6,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,63</t>
+          <t>3,46; 6,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,32</t>
+          <t>3,53; 6,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 10,89</t>
+          <t>6,89; 10,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,38; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 9,08</t>
+          <t>7,12; 9,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,52; 8,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,27</t>
+          <t>7,72; 11,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,54; 9,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 14,61</t>
+          <t>12,1; 14,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 12,87</t>
+          <t>10,68; 12,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,42</t>
+          <t>10,62; 14,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,22; 7,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 11,59</t>
+          <t>9,9; 11,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,31</t>
+          <t>8,86; 10,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 12,5</t>
+          <t>10,04; 12,57</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>93675</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>134424</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>100276</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91653</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>151742</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>252309</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>211520</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>187887</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>245417</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>386733</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>311796</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>279541</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75831; 110877</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>115167; 161700</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>83344; 118134</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77698; 108813</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>127975; 174620</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>223288; 281437</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>186966; 243589</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>171485; 206234</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>217188; 275206</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>349795; 422745</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>280511; 344129</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>255071; 305393</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57594</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>123031</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>119751</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>189258</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>102610</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>189693</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>176991</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>238309</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>160205</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>312725</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>296741</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>427568</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>42582; 75448</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>103290; 146244</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>99977; 143183</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>124844; 228498</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>85771; 122488</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>163449; 217465</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>151718; 203848</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>172541; 275174</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>137088; 185833</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>277845; 349761</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>264766; 330395</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>343445; 485843</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14776</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17296</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29191</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58323</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32174</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28219</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23872</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51482</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46950</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45515</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53063</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109804</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8102; 24431</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9660; 28656</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19370; 42382</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41664; 88635</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22833; 44045</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18045; 43085</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14831; 34643</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40642; 65538</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34051; 63164</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32450; 64183</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>38616; 69029</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>90079; 139237</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>166046</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>274751</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>249218</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>339234</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>286526</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>470222</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>412382</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>477678</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>452571</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>744972</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>661600</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>816913</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>143463; 192159</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>242943; 308587</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>219975; 280837</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>266346; 388799</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>254823; 319623</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>429397; 511524</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>376649; 456212</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>387516; 523357</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>413707; 496793</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>689390; 796903</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>610917; 708723</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>712845; 892005</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>